--- a/contactos.xlsx
+++ b/contactos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODE\WppBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9400412-B3E1-4C8F-B955-BE3E2923402E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D013D84A-1CB5-49B9-9282-7BF634091E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Numero</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>Hermes</t>
+  </si>
+  <si>
+    <t>Mati</t>
+  </si>
+  <si>
+    <t>549299507-0939</t>
+  </si>
+  <si>
+    <t>54 9 11 6658-5509</t>
+  </si>
+  <si>
+    <t>Jime</t>
+  </si>
+  <si>
+    <t>Joaco</t>
+  </si>
+  <si>
+    <t>54 9 11 6729-9358</t>
+  </si>
+  <si>
+    <t>54 9 11 3817-5102</t>
+  </si>
+  <si>
+    <t>5491162882108</t>
   </si>
 </sst>
 </file>
@@ -69,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,15 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -371,27 +396,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1162882108</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1162882108</v>
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1162882108</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
